--- a/predictions_svr.xlsx
+++ b/predictions_svr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>CU</t>
@@ -471,22 +476,20 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>第1年后</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>2003</v>
       </c>
       <c r="B2" t="n">
-        <v>18.05165996639247</v>
+        <v>18.45034575638407</v>
       </c>
       <c r="C2" t="n">
-        <v>19.29314169357563</v>
+        <v>18.76596803312237</v>
       </c>
       <c r="D2" t="n">
-        <v>50.84775370735642</v>
+        <v>52.50021740889662</v>
       </c>
       <c r="E2" t="n">
-        <v>51.56879597984053</v>
+        <v>48.19809220147312</v>
       </c>
       <c r="F2" t="n">
         <v>0.1725</v>
@@ -495,26 +498,24 @@
         <v>0.033</v>
       </c>
       <c r="H2" t="n">
-        <v>7.803071610569772</v>
+        <v>7.391215044456708</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>第2年后</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>2004</v>
       </c>
       <c r="B3" t="n">
-        <v>18.12508223989018</v>
+        <v>19.31063656743646</v>
       </c>
       <c r="C3" t="n">
-        <v>19.33799434657913</v>
+        <v>19.49733718401502</v>
       </c>
       <c r="D3" t="n">
-        <v>51.11286064966232</v>
+        <v>53.41612119727298</v>
       </c>
       <c r="E3" t="n">
-        <v>51.09673677800887</v>
+        <v>48.70137500072254</v>
       </c>
       <c r="F3" t="n">
         <v>0.1725</v>
@@ -523,26 +524,24 @@
         <v>0.033</v>
       </c>
       <c r="H3" t="n">
-        <v>7.887696034981958</v>
+        <v>7.680023580195519</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>第3年后</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>2005</v>
       </c>
       <c r="B4" t="n">
-        <v>18.15609620771371</v>
+        <v>19.7708438255659</v>
       </c>
       <c r="C4" t="n">
-        <v>19.34820597251958</v>
+        <v>19.85328781571865</v>
       </c>
       <c r="D4" t="n">
-        <v>51.3338930043897</v>
+        <v>53.94316310628189</v>
       </c>
       <c r="E4" t="n">
-        <v>50.69589217437327</v>
+        <v>48.98046407165427</v>
       </c>
       <c r="F4" t="n">
         <v>0.1725</v>
@@ -551,26 +550,24 @@
         <v>0.033</v>
       </c>
       <c r="H4" t="n">
-        <v>7.961870719097793</v>
+        <v>8.018163580155267</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>第4年后</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>2006</v>
       </c>
       <c r="B5" t="n">
-        <v>18.10378427268714</v>
+        <v>19.9255940839362</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28334105924266</v>
+        <v>19.94553695426591</v>
       </c>
       <c r="D5" t="n">
-        <v>51.50423271669054</v>
+        <v>54.16283187443982</v>
       </c>
       <c r="E5" t="n">
-        <v>50.42739367428638</v>
+        <v>49.0348243558839</v>
       </c>
       <c r="F5" t="n">
         <v>0.1725</v>
@@ -579,26 +576,24 @@
         <v>0.033</v>
       </c>
       <c r="H5" t="n">
-        <v>8.050195769791607</v>
+        <v>8.284941604625136</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>第5年后</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>2007</v>
       </c>
       <c r="B6" t="n">
-        <v>18.03226998557576</v>
+        <v>19.89389478027032</v>
       </c>
       <c r="C6" t="n">
-        <v>19.21247409924228</v>
+        <v>19.87469916977242</v>
       </c>
       <c r="D6" t="n">
-        <v>51.69867988824317</v>
+        <v>54.25906933445473</v>
       </c>
       <c r="E6" t="n">
-        <v>50.14758776266544</v>
+        <v>48.80699715920245</v>
       </c>
       <c r="F6" t="n">
         <v>0.1725</v>
@@ -607,7 +602,553 @@
         <v>0.033</v>
       </c>
       <c r="H6" t="n">
-        <v>8.171840950446201</v>
+        <v>8.577723262930364</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B7" t="n">
+        <v>19.78141833559144</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19.74514112311723</v>
+      </c>
+      <c r="D7" t="n">
+        <v>54.29840372083437</v>
+      </c>
+      <c r="E7" t="n">
+        <v>48.55392800924291</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8.950552191816621</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B8" t="n">
+        <v>19.65094095367824</v>
+      </c>
+      <c r="C8" t="n">
+        <v>19.6602549026715</v>
+      </c>
+      <c r="D8" t="n">
+        <v>54.25822366553489</v>
+      </c>
+      <c r="E8" t="n">
+        <v>48.35898680279311</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9.068168933494235</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B9" t="n">
+        <v>19.26430249557906</v>
+      </c>
+      <c r="C9" t="n">
+        <v>19.44578897907583</v>
+      </c>
+      <c r="D9" t="n">
+        <v>54.05000005284556</v>
+      </c>
+      <c r="E9" t="n">
+        <v>47.99375885947854</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9.280041303802285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B10" t="n">
+        <v>18.85532495938939</v>
+      </c>
+      <c r="C10" t="n">
+        <v>19.21892638224852</v>
+      </c>
+      <c r="D10" t="n">
+        <v>53.75593321071165</v>
+      </c>
+      <c r="E10" t="n">
+        <v>47.80029997666665</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9.371288496368569</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B11" t="n">
+        <v>18.54178857762432</v>
+      </c>
+      <c r="C11" t="n">
+        <v>19.06723483579019</v>
+      </c>
+      <c r="D11" t="n">
+        <v>53.49079933588519</v>
+      </c>
+      <c r="E11" t="n">
+        <v>47.80690668374971</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9.412878506815268</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B12" t="n">
+        <v>18.31188209481799</v>
+      </c>
+      <c r="C12" t="n">
+        <v>18.95895118716691</v>
+      </c>
+      <c r="D12" t="n">
+        <v>53.22896248756032</v>
+      </c>
+      <c r="E12" t="n">
+        <v>47.9823475634415</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9.411013525411745</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B13" t="n">
+        <v>18.29022091091468</v>
+      </c>
+      <c r="C13" t="n">
+        <v>18.92308099032049</v>
+      </c>
+      <c r="D13" t="n">
+        <v>53.08645079454363</v>
+      </c>
+      <c r="E13" t="n">
+        <v>48.15685485817838</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9.39000231034445</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B14" t="n">
+        <v>18.02935899409039</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18.75938934986451</v>
+      </c>
+      <c r="D14" t="n">
+        <v>52.75722502405313</v>
+      </c>
+      <c r="E14" t="n">
+        <v>48.39777547564906</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9.310154595050799</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B15" t="n">
+        <v>17.81160481473744</v>
+      </c>
+      <c r="C15" t="n">
+        <v>18.66189912127483</v>
+      </c>
+      <c r="D15" t="n">
+        <v>52.43998439172056</v>
+      </c>
+      <c r="E15" t="n">
+        <v>48.90827856791405</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9.38006963120657</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B16" t="n">
+        <v>17.51156513471738</v>
+      </c>
+      <c r="C16" t="n">
+        <v>18.37583118252833</v>
+      </c>
+      <c r="D16" t="n">
+        <v>51.89425427890087</v>
+      </c>
+      <c r="E16" t="n">
+        <v>49.47341756009502</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9.109094316615192</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B17" t="n">
+        <v>17.33528436635909</v>
+      </c>
+      <c r="C17" t="n">
+        <v>18.4558030674635</v>
+      </c>
+      <c r="D17" t="n">
+        <v>51.67636113223844</v>
+      </c>
+      <c r="E17" t="n">
+        <v>50.09772267364892</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H17" t="n">
+        <v>9.175275716436232</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17.20134068692412</v>
+      </c>
+      <c r="C18" t="n">
+        <v>18.58976518253943</v>
+      </c>
+      <c r="D18" t="n">
+        <v>51.4377779893848</v>
+      </c>
+      <c r="E18" t="n">
+        <v>50.75474117362315</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H18" t="n">
+        <v>9.039575188144598</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17.13506734250423</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18.62336378588517</v>
+      </c>
+      <c r="D19" t="n">
+        <v>51.31410148895062</v>
+      </c>
+      <c r="E19" t="n">
+        <v>51.07606781547474</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8.923446628012112</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B20" t="n">
+        <v>17.34839523876633</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18.56244153463004</v>
+      </c>
+      <c r="D20" t="n">
+        <v>50.7900000087805</v>
+      </c>
+      <c r="E20" t="n">
+        <v>51.53073208724923</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H20" t="n">
+        <v>8.29004132827327</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B21" t="n">
+        <v>17.54480637990727</v>
+      </c>
+      <c r="C21" t="n">
+        <v>18.77839601642368</v>
+      </c>
+      <c r="D21" t="n">
+        <v>50.62380052477069</v>
+      </c>
+      <c r="E21" t="n">
+        <v>51.75075108493606</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8.042503014294342</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B22" t="n">
+        <v>17.69696851399987</v>
+      </c>
+      <c r="C22" t="n">
+        <v>18.87414049665877</v>
+      </c>
+      <c r="D22" t="n">
+        <v>50.52667901856015</v>
+      </c>
+      <c r="E22" t="n">
+        <v>51.76993583435272</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H22" t="n">
+        <v>7.839990369544374</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B23" t="n">
+        <v>17.39859556678525</v>
+      </c>
+      <c r="C23" t="n">
+        <v>18.77387946894155</v>
+      </c>
+      <c r="D23" t="n">
+        <v>50.76369943465487</v>
+      </c>
+      <c r="E23" t="n">
+        <v>51.66134829974671</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8.207739752925926</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B24" t="n">
+        <v>17.48116544211096</v>
+      </c>
+      <c r="C24" t="n">
+        <v>18.82178430253219</v>
+      </c>
+      <c r="D24" t="n">
+        <v>50.75326510278552</v>
+      </c>
+      <c r="E24" t="n">
+        <v>51.61044265056012</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8.102612014401894</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B25" t="n">
+        <v>17.58114328223417</v>
+      </c>
+      <c r="C25" t="n">
+        <v>18.82133851980256</v>
+      </c>
+      <c r="D25" t="n">
+        <v>50.70803090975203</v>
+      </c>
+      <c r="E25" t="n">
+        <v>51.53308526666817</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7.962489909339861</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B26" t="n">
+        <v>17.68586406820027</v>
+      </c>
+      <c r="C26" t="n">
+        <v>18.83203602197088</v>
+      </c>
+      <c r="D26" t="n">
+        <v>50.68936472144094</v>
+      </c>
+      <c r="E26" t="n">
+        <v>51.39968926121052</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7.864050399095409</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B27" t="n">
+        <v>17.80783211997858</v>
+      </c>
+      <c r="C27" t="n">
+        <v>18.78748517134375</v>
+      </c>
+      <c r="D27" t="n">
+        <v>50.69441520150585</v>
+      </c>
+      <c r="E27" t="n">
+        <v>51.11274620595384</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7.772001714791757</v>
       </c>
     </row>
   </sheetData>
